--- a/Project1/Project1/Stage01.xlsx
+++ b/Project1/Project1/Stage01.xlsx
@@ -422,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="CP13" sqref="CP13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
@@ -1641,13 +1641,13 @@
     </row>
     <row r="5" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
@@ -1943,10 +1943,10 @@
     </row>
     <row r="6" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="7" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -2266,10 +2266,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -2550,28 +2550,28 @@
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -2873,16 +2873,16 @@
         <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>

--- a/Project1/Project1/Stage01.xlsx
+++ b/Project1/Project1/Stage01.xlsx
@@ -423,7 +423,7 @@
   <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -2876,16 +2876,16 @@
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L9" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M9" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>

--- a/Project1/Project1/Stage01.xlsx
+++ b/Project1/Project1/Stage01.xlsx
@@ -90,11 +90,11 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -111,14 +111,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFCC6600"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFCC6600"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -135,7 +135,199 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -423,7 +615,7 @@
   <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1375,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
@@ -1393,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="S4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="1">
         <v>0</v>
@@ -1982,25 +2174,25 @@
         <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
         <v>3</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>0</v>
@@ -2284,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
         <v>0</v>
@@ -2302,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="1">
         <v>0</v>
@@ -2571,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -2586,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="1">
         <v>0</v>
@@ -2604,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -2876,37 +3068,37 @@
         <v>1</v>
       </c>
       <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
         <v>4</v>
       </c>
-      <c r="K9" s="1">
+      <c r="Q9" s="1">
         <v>4</v>
       </c>
-      <c r="L9" s="1">
+      <c r="R9" s="1">
         <v>4</v>
       </c>
-      <c r="M9" s="1">
+      <c r="S9" s="1">
         <v>4</v>
       </c>
-      <c r="N9" s="1">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
       <c r="T9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="1">
         <v>0</v>
@@ -3193,22 +3385,22 @@
         <v>1</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="1">
         <v>0</v>
@@ -3453,30 +3645,30 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:N10">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
-      <formula>0</formula>
-      <formula>0</formula>
+  <conditionalFormatting sqref="A1:T10">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="between">
+      <formula>4</formula>
+      <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="between">
+      <formula>3</formula>
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="between">
+      <formula>2</formula>
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="between">
       <formula>1</formula>
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="between">
       <formula>1</formula>
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
-      <formula>2</formula>
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
-      <formula>3</formula>
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
-      <formula>4</formula>
-      <formula>4</formula>
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="between">
+      <formula>0</formula>
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
